--- a/stringed_survey.xlsx
+++ b/stringed_survey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="199">
   <si>
     <t>Age</t>
   </si>
@@ -70,6 +70,33 @@
     <t>int_length</t>
   </si>
   <si>
+    <t>Age_label_encoded</t>
+  </si>
+  <si>
+    <t>Gender_label_encoded</t>
+  </si>
+  <si>
+    <t>Category_label_encoded</t>
+  </si>
+  <si>
+    <t>MarriageStatus_label_encoded</t>
+  </si>
+  <si>
+    <t>FreeCustomization_label_encoded</t>
+  </si>
+  <si>
+    <t>WTSCustomization_label_encoded</t>
+  </si>
+  <si>
+    <t>WantOwnPersonalization_label_encoded</t>
+  </si>
+  <si>
+    <t>WTSPersonalization_label_encoded</t>
+  </si>
+  <si>
+    <t>PersonalizationJob_label_encoded</t>
+  </si>
+  <si>
     <t>20-30</t>
   </si>
   <si>
@@ -341,6 +368,9 @@
   </si>
   <si>
     <t>under 500</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>over 1000</t>
@@ -938,13 +968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,149 +1029,230 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -1149,43 +1260,70 @@
       <c r="R4">
         <v>4</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P5">
         <v>7</v>
@@ -1193,49 +1331,76 @@
       <c r="R5">
         <v>3</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -1246,49 +1411,76 @@
       <c r="R6">
         <v>2</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="O7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1299,49 +1491,76 @@
       <c r="R7">
         <v>4</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P8">
         <v>8</v>
@@ -1352,49 +1571,76 @@
       <c r="R8">
         <v>2</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P9">
         <v>4</v>
@@ -1405,102 +1651,156 @@
       <c r="R9">
         <v>3</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P11">
         <v>6</v>
@@ -1511,49 +1811,76 @@
       <c r="R11">
         <v>3</v>
       </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="O12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -1564,102 +1891,156 @@
       <c r="R12">
         <v>4</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P14">
         <v>6</v>
@@ -1670,102 +2051,156 @@
       <c r="R14">
         <v>4</v>
       </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15" t="s">
-        <v>182</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P16">
         <v>4</v>
@@ -1776,52 +2211,79 @@
       <c r="R16">
         <v>3</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P17">
         <v>6</v>
@@ -1832,267 +2294,402 @@
       <c r="R17">
         <v>1</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>187</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H19" t="s">
         <v>107</v>
       </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>186</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
       </c>
-      <c r="L18" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" t="s">
-        <v>177</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>75</v>
       </c>
-      <c r="H20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
         <v>107</v>
       </c>
-      <c r="J20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" t="s">
-        <v>130</v>
-      </c>
-      <c r="N20" t="s">
-        <v>157</v>
-      </c>
-      <c r="O20" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P22">
         <v>4</v>
@@ -2103,52 +2700,79 @@
       <c r="R22">
         <v>1</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="P23">
         <v>6</v>
@@ -2159,52 +2783,79 @@
       <c r="R23">
         <v>3</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P24">
         <v>8</v>
@@ -2215,52 +2866,79 @@
       <c r="R24">
         <v>1</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P25">
         <v>8</v>
@@ -2271,52 +2949,79 @@
       <c r="R25">
         <v>4</v>
       </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O26" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P26">
         <v>6</v>
@@ -2327,52 +3032,79 @@
       <c r="R26">
         <v>1</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="N27" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O27" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P27">
         <v>7</v>
@@ -2383,52 +3115,79 @@
       <c r="R27">
         <v>2</v>
       </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N28" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P28">
         <v>4</v>
@@ -2439,52 +3198,79 @@
       <c r="R28">
         <v>4</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P29">
         <v>5</v>
@@ -2495,52 +3281,79 @@
       <c r="R29">
         <v>4</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N30" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P30">
         <v>4</v>
@@ -2551,52 +3364,79 @@
       <c r="R30">
         <v>1</v>
       </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M31" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N31" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="P31">
         <v>6</v>
@@ -2607,52 +3447,79 @@
       <c r="R31">
         <v>3</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="N32" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O32" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -2663,52 +3530,79 @@
       <c r="R32">
         <v>1</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -2719,52 +3613,79 @@
       <c r="R33">
         <v>3</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N34" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P34">
         <v>4</v>
@@ -2775,52 +3696,79 @@
       <c r="R34">
         <v>4</v>
       </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M35" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N35" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O35" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P35">
         <v>4</v>
@@ -2831,164 +3779,245 @@
       <c r="R35">
         <v>2</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="F36" t="s">
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" t="s">
-        <v>114</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
         <v>116</v>
       </c>
-      <c r="N36" t="s">
-        <v>170</v>
-      </c>
-      <c r="O36" t="s">
-        <v>173</v>
-      </c>
-      <c r="P36">
-        <v>3</v>
-      </c>
-      <c r="Q36">
-        <v>2</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" t="s">
-        <v>107</v>
-      </c>
-      <c r="L37" t="s">
-        <v>113</v>
-      </c>
-      <c r="M37" t="s">
-        <v>141</v>
-      </c>
-      <c r="N37" t="s">
-        <v>157</v>
-      </c>
-      <c r="O37" t="s">
-        <v>182</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N38" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O38" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -2999,52 +4028,79 @@
       <c r="R38">
         <v>2</v>
       </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O39" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P39">
         <v>5</v>
@@ -3055,52 +4111,79 @@
       <c r="R39">
         <v>3</v>
       </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="K40" t="s">
+        <v>118</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="N40" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O40" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -3111,52 +4194,79 @@
       <c r="R40">
         <v>2</v>
       </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="N41" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O41" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="P41">
         <v>6</v>
@@ -3167,52 +4277,79 @@
       <c r="R41">
         <v>1</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I42" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="N42" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O42" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="P42">
         <v>6</v>
@@ -3223,108 +4360,162 @@
       <c r="R42">
         <v>2</v>
       </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" t="s">
+        <v>173</v>
+      </c>
+      <c r="O43" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" t="s">
-        <v>107</v>
-      </c>
-      <c r="L43" t="s">
-        <v>113</v>
-      </c>
-      <c r="M43" t="s">
-        <v>145</v>
-      </c>
-      <c r="N43" t="s">
-        <v>163</v>
-      </c>
-      <c r="O43" t="s">
-        <v>173</v>
-      </c>
-      <c r="P43">
-        <v>3</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K44" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="N44" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O44" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P44">
         <v>5</v>
@@ -3335,52 +4526,79 @@
       <c r="R44">
         <v>3</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="N45" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O45" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P45">
         <v>6</v>
@@ -3391,52 +4609,79 @@
       <c r="R45">
         <v>1</v>
       </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O46" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P46">
         <v>5</v>
@@ -3447,52 +4692,79 @@
       <c r="R46">
         <v>1</v>
       </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M47" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="N47" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O47" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P47">
         <v>4</v>
@@ -3503,52 +4775,79 @@
       <c r="R47">
         <v>4</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K48" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L48" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M48" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N48" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O48" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P48">
         <v>4</v>
@@ -3559,52 +4858,79 @@
       <c r="R48">
         <v>1</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K49" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L49" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M49" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N49" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O49" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P49">
         <v>6</v>
@@ -3615,52 +4941,79 @@
       <c r="R49">
         <v>2</v>
       </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I50" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M50" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="N50" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O50" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -3671,52 +5024,79 @@
       <c r="R50">
         <v>2</v>
       </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K51" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M51" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="O51" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P51">
         <v>5</v>
@@ -3726,6 +5106,33 @@
       </c>
       <c r="R51">
         <v>4</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
